--- a/parsing_table.xlsx
+++ b/parsing_table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9398" xr2:uid="{580C6076-1B20-47A5-843C-83406B0FC91F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="9398" xr2:uid="{580C6076-1B20-47A5-843C-83406B0FC91F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T -&gt; FE'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T' -&gt; *FT' | /FT' | e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,14 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E' -&gt; +TE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E' -&gt; -TE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T' -&gt; *FT'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,6 +135,18 @@
   </si>
   <si>
     <t>A -&gt; a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E' -&gt; +TE'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E' -&gt; -TE'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T -&gt; FT'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +167,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -193,11 +202,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,7 +529,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -538,10 +550,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.6">
@@ -563,28 +575,28 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>25</v>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -596,7 +608,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -606,10 +618,10 @@
         <v>4</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -620,23 +632,23 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -648,20 +660,20 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="1"/>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -672,27 +684,27 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -704,20 +716,20 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="1"/>
+      <c r="H11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -728,7 +740,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -736,10 +748,10 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="1"/>
+      <c r="H12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
